--- a/codebook_GetExplorDataWk3.xlsx
+++ b/codebook_GetExplorDataWk3.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t>Relative number of the subject providing the sample data</t>
-  </si>
-  <si>
-    <t>Output contains 30 subject samples.</t>
-  </si>
-  <si>
     <t>activity</t>
   </si>
   <si>
-    <t>Sample type of activity for the associated measurements</t>
-  </si>
-  <si>
     <t>WALKING</t>
   </si>
   <si>
@@ -274,6 +265,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>There are 30 subjects for which we have data</t>
+  </si>
+  <si>
+    <t>Type of activity for the measurements</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,27 +643,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -682,66 +679,62 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -749,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -760,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -771,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -782,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -793,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -804,18 +797,18 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>18</v>
@@ -826,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -837,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>18</v>
@@ -848,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -859,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>18</v>
@@ -870,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>18</v>
@@ -881,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>18</v>
@@ -892,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -903,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>18</v>
@@ -914,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>18</v>
@@ -925,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>18</v>
@@ -936,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>18</v>
@@ -947,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -958,7 +951,7 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -969,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -980,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>18</v>
@@ -991,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>18</v>
@@ -1002,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -1013,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>18</v>
@@ -1024,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>18</v>
@@ -1035,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>18</v>
@@ -1046,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>18</v>
@@ -1057,7 +1050,7 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>18</v>
@@ -1068,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>18</v>
@@ -1079,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>18</v>
@@ -1090,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C81">
         <v>18</v>
@@ -1101,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C83">
         <v>18</v>
@@ -1112,7 +1105,7 @@
         <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>18</v>
@@ -1123,7 +1116,7 @@
         <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -1134,7 +1127,7 @@
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -1145,7 +1138,7 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C91">
         <v>18</v>
@@ -1156,7 +1149,7 @@
         <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -1167,7 +1160,7 @@
         <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C95">
         <v>18</v>
@@ -1178,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C97">
         <v>18</v>
@@ -1189,7 +1182,7 @@
         <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C99">
         <v>18</v>
@@ -1200,7 +1193,7 @@
         <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C101">
         <v>18</v>
@@ -1211,7 +1204,7 @@
         <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C103">
         <v>18</v>
@@ -1222,7 +1215,7 @@
         <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>18</v>
@@ -1233,7 +1226,7 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C107">
         <v>18</v>
@@ -1244,7 +1237,7 @@
         <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C109">
         <v>18</v>
@@ -1255,7 +1248,7 @@
         <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C111">
         <v>18</v>
@@ -1266,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C113">
         <v>18</v>
@@ -1277,7 +1270,7 @@
         <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -1288,7 +1281,7 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C117">
         <v>18</v>
@@ -1299,7 +1292,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C119">
         <v>18</v>
@@ -1310,7 +1303,7 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C121">
         <v>18</v>
@@ -1321,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C123">
         <v>18</v>
@@ -1332,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C125">
         <v>18</v>
@@ -1343,7 +1336,7 @@
         <v>57</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C127">
         <v>18</v>
@@ -1354,7 +1347,7 @@
         <v>58</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C129">
         <v>18</v>
@@ -1365,7 +1358,7 @@
         <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C131">
         <v>18</v>
@@ -1376,7 +1369,7 @@
         <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C133">
         <v>18</v>
@@ -1387,7 +1380,7 @@
         <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>18</v>
@@ -1398,7 +1391,7 @@
         <v>62</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C137">
         <v>18</v>
@@ -1409,7 +1402,7 @@
         <v>63</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C139">
         <v>18</v>
@@ -1420,7 +1413,7 @@
         <v>64</v>
       </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C141">
         <v>18</v>
@@ -1431,7 +1424,7 @@
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C143">
         <v>18</v>
@@ -1442,7 +1435,7 @@
         <v>66</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C145">
         <v>18</v>
@@ -1453,7 +1446,7 @@
         <v>67</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C147">
         <v>18</v>
@@ -1464,7 +1457,7 @@
         <v>68</v>
       </c>
       <c r="B149" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C149">
         <v>18</v>
@@ -1475,7 +1468,7 @@
         <v>69</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C151">
         <v>18</v>
